--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.319636</v>
+        <v>54.86839566666666</v>
       </c>
       <c r="H2">
-        <v>171.958908</v>
+        <v>164.605187</v>
       </c>
       <c r="I2">
-        <v>0.5476981520382651</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="J2">
-        <v>0.547698152038265</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N2">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O2">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P2">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q2">
-        <v>197.1169356909427</v>
+        <v>79.16823639754166</v>
       </c>
       <c r="R2">
-        <v>1774.052421218484</v>
+        <v>712.514127577875</v>
       </c>
       <c r="S2">
-        <v>0.03190573050493627</v>
+        <v>0.01263742730990018</v>
       </c>
       <c r="T2">
-        <v>0.03190573050493626</v>
+        <v>0.01263742730990018</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>57.319636</v>
+        <v>54.86839566666666</v>
       </c>
       <c r="H3">
-        <v>171.958908</v>
+        <v>164.605187</v>
       </c>
       <c r="I3">
-        <v>0.5476981520382651</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="J3">
-        <v>0.547698152038265</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.151571</v>
       </c>
       <c r="O3">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P3">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q3">
-        <v>595.1989035160519</v>
+        <v>569.7455744220864</v>
       </c>
       <c r="R3">
-        <v>5356.790131644468</v>
+        <v>5127.710169798777</v>
       </c>
       <c r="S3">
-        <v>0.09634005188773488</v>
+        <v>0.0909470591935533</v>
       </c>
       <c r="T3">
-        <v>0.09634005188773485</v>
+        <v>0.09094705919355328</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.319636</v>
+        <v>54.86839566666666</v>
       </c>
       <c r="H4">
-        <v>171.958908</v>
+        <v>164.605187</v>
       </c>
       <c r="I4">
-        <v>0.5476981520382651</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="J4">
-        <v>0.547698152038265</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N4">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O4">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P4">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q4">
-        <v>1138.896362471193</v>
+        <v>1532.733214929151</v>
       </c>
       <c r="R4">
-        <v>10250.06726224074</v>
+        <v>13794.59893436236</v>
       </c>
       <c r="S4">
-        <v>0.1843439798142508</v>
+        <v>0.2446663645741922</v>
       </c>
       <c r="T4">
-        <v>0.1843439798142507</v>
+        <v>0.2446663645741922</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.319636</v>
+        <v>54.86839566666666</v>
       </c>
       <c r="H5">
-        <v>171.958908</v>
+        <v>164.605187</v>
       </c>
       <c r="I5">
-        <v>0.5476981520382651</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="J5">
-        <v>0.547698152038265</v>
+        <v>0.6170939026906647</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N5">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O5">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P5">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q5">
-        <v>1452.524190023353</v>
+        <v>1684.190123670361</v>
       </c>
       <c r="R5">
-        <v>13072.71771021018</v>
+        <v>15157.71111303325</v>
       </c>
       <c r="S5">
-        <v>0.2351083898313432</v>
+        <v>0.268843051613019</v>
       </c>
       <c r="T5">
-        <v>0.2351083898313431</v>
+        <v>0.268843051613019</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>17.925553</v>
       </c>
       <c r="I6">
-        <v>0.05709382762749331</v>
+        <v>0.06720170646055251</v>
       </c>
       <c r="J6">
-        <v>0.05709382762749329</v>
+        <v>0.0672017064605525</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N6">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O6">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P6">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q6">
-        <v>20.54810721364656</v>
+        <v>8.621444094958333</v>
       </c>
       <c r="R6">
-        <v>184.932964922819</v>
+        <v>77.592996854625</v>
       </c>
       <c r="S6">
-        <v>0.003325956589407697</v>
+        <v>0.00137621952962675</v>
       </c>
       <c r="T6">
-        <v>0.003325956589407696</v>
+        <v>0.001376219529626749</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>17.925553</v>
       </c>
       <c r="I7">
-        <v>0.05709382762749331</v>
+        <v>0.06720170646055251</v>
       </c>
       <c r="J7">
-        <v>0.05709382762749329</v>
+        <v>0.0672017064605525</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>31.151571</v>
       </c>
       <c r="O7">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P7">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q7">
         <v>62.04545966597367</v>
@@ -883,10 +883,10 @@
         <v>558.409136993763</v>
       </c>
       <c r="S7">
-        <v>0.01004279874896822</v>
+        <v>0.009904161341939834</v>
       </c>
       <c r="T7">
-        <v>0.01004279874896822</v>
+        <v>0.00990416134193983</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>17.925553</v>
       </c>
       <c r="I8">
-        <v>0.05709382762749331</v>
+        <v>0.06720170646055251</v>
       </c>
       <c r="J8">
-        <v>0.05709382762749329</v>
+        <v>0.0672017064605525</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N8">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O8">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P8">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q8">
-        <v>118.7222421009128</v>
+        <v>166.915095324869</v>
       </c>
       <c r="R8">
-        <v>1068.500178908215</v>
+        <v>1502.235857923821</v>
       </c>
       <c r="S8">
-        <v>0.01921661296192508</v>
+        <v>0.02664423865021948</v>
       </c>
       <c r="T8">
-        <v>0.01921661296192508</v>
+        <v>0.02664423865021948</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>17.925553</v>
       </c>
       <c r="I9">
-        <v>0.05709382762749331</v>
+        <v>0.06720170646055251</v>
       </c>
       <c r="J9">
-        <v>0.05709382762749329</v>
+        <v>0.0672017064605525</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N9">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O9">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P9">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q9">
-        <v>151.4158216918061</v>
+        <v>183.4087969775194</v>
       </c>
       <c r="R9">
-        <v>1362.742395226255</v>
+        <v>1650.679172797674</v>
       </c>
       <c r="S9">
-        <v>0.0245084593271923</v>
+        <v>0.02927708693876645</v>
       </c>
       <c r="T9">
-        <v>0.0245084593271923</v>
+        <v>0.02927708693876644</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.037676333333332</v>
+        <v>4.832157666666667</v>
       </c>
       <c r="H10">
-        <v>27.113029</v>
+        <v>14.496473</v>
       </c>
       <c r="I10">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="J10">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N10">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O10">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P10">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q10">
-        <v>31.07973443155188</v>
+        <v>6.972199493291667</v>
       </c>
       <c r="R10">
-        <v>279.717609883967</v>
+        <v>62.749795439625</v>
       </c>
       <c r="S10">
-        <v>0.005030626249653327</v>
+        <v>0.001112954744174803</v>
       </c>
       <c r="T10">
-        <v>0.005030626249653327</v>
+        <v>0.001112954744174803</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.037676333333332</v>
+        <v>4.832157666666667</v>
       </c>
       <c r="H11">
-        <v>27.113029</v>
+        <v>14.496473</v>
       </c>
       <c r="I11">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="J11">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>31.151571</v>
       </c>
       <c r="O11">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P11">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q11">
-        <v>93.84593865761764</v>
+        <v>50.17643421212034</v>
       </c>
       <c r="R11">
-        <v>844.6134479185588</v>
+        <v>451.5879079090831</v>
       </c>
       <c r="S11">
-        <v>0.01519008611460629</v>
+        <v>0.008009538533125008</v>
       </c>
       <c r="T11">
-        <v>0.01519008611460629</v>
+        <v>0.008009538533125006</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.037676333333332</v>
+        <v>4.832157666666667</v>
       </c>
       <c r="H12">
-        <v>27.113029</v>
+        <v>14.496473</v>
       </c>
       <c r="I12">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="J12">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N12">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O12">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P12">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q12">
-        <v>179.5715642929994</v>
+        <v>134.984966582029</v>
       </c>
       <c r="R12">
-        <v>1616.144078636995</v>
+        <v>1214.864699238261</v>
       </c>
       <c r="S12">
-        <v>0.02906580257347991</v>
+        <v>0.02154731216372869</v>
       </c>
       <c r="T12">
-        <v>0.02906580257347991</v>
+        <v>0.02154731216372868</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.037676333333332</v>
+        <v>4.832157666666667</v>
       </c>
       <c r="H13">
-        <v>27.113029</v>
+        <v>14.496473</v>
       </c>
       <c r="I13">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="J13">
-        <v>0.08635642114835881</v>
+        <v>0.05434631351453007</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N13">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O13">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P13">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q13">
-        <v>229.0217526114127</v>
+        <v>148.3234951438927</v>
       </c>
       <c r="R13">
-        <v>2061.195773502715</v>
+        <v>1334.911456295034</v>
       </c>
       <c r="S13">
-        <v>0.03706990621061929</v>
+        <v>0.02367650807350158</v>
       </c>
       <c r="T13">
-        <v>0.03706990621061929</v>
+        <v>0.02367650807350158</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>32.32302533333333</v>
+        <v>23.238438</v>
       </c>
       <c r="H14">
-        <v>96.969076</v>
+        <v>69.71531400000001</v>
       </c>
       <c r="I14">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="J14">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N14">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O14">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P14">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q14">
-        <v>111.1558996286609</v>
+        <v>33.53016122925</v>
       </c>
       <c r="R14">
-        <v>1000.403096657948</v>
+        <v>301.77145106325</v>
       </c>
       <c r="S14">
-        <v>0.01799191005660889</v>
+        <v>0.005352335665229472</v>
       </c>
       <c r="T14">
-        <v>0.01799191005660889</v>
+        <v>0.005352335665229472</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>32.32302533333333</v>
+        <v>23.238438</v>
       </c>
       <c r="H15">
-        <v>96.969076</v>
+        <v>69.71531400000001</v>
       </c>
       <c r="I15">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="J15">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>31.151571</v>
       </c>
       <c r="O15">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P15">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q15">
-        <v>335.6376728687106</v>
+        <v>241.304617095366</v>
       </c>
       <c r="R15">
-        <v>3020.739055818396</v>
+        <v>2171.741553858294</v>
       </c>
       <c r="S15">
-        <v>0.05432696637818674</v>
+        <v>0.03851885171185496</v>
       </c>
       <c r="T15">
-        <v>0.05432696637818673</v>
+        <v>0.03851885171185495</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>32.32302533333333</v>
+        <v>23.238438</v>
       </c>
       <c r="H16">
-        <v>96.969076</v>
+        <v>69.71531400000001</v>
       </c>
       <c r="I16">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="J16">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N16">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O16">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P16">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q16">
-        <v>642.2332475418644</v>
+        <v>649.1592355289221</v>
       </c>
       <c r="R16">
-        <v>5780.09922787678</v>
+        <v>5842.433119760299</v>
       </c>
       <c r="S16">
-        <v>0.1039531222700632</v>
+        <v>0.1036236630351648</v>
       </c>
       <c r="T16">
-        <v>0.1039531222700632</v>
+        <v>0.1036236630351648</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>32.32302533333333</v>
+        <v>23.238438</v>
       </c>
       <c r="H17">
-        <v>96.969076</v>
+        <v>69.71531400000001</v>
       </c>
       <c r="I17">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="J17">
-        <v>0.3088515991858827</v>
+        <v>0.2613580773342528</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N17">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O17">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P17">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q17">
-        <v>819.0906200347177</v>
+        <v>713.3058529156681</v>
       </c>
       <c r="R17">
-        <v>7371.81558031246</v>
+        <v>6419.752676241013</v>
       </c>
       <c r="S17">
-        <v>0.1325796004810239</v>
+        <v>0.1138632269220036</v>
       </c>
       <c r="T17">
-        <v>0.1325796004810239</v>
+        <v>0.1138632269220035</v>
       </c>
     </row>
   </sheetData>
